--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/48.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/48.xlsx
@@ -479,13 +479,13 @@
         <v>-19.58403335920617</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.073426813754718</v>
+        <v>-9.122077811114572</v>
       </c>
       <c r="F2" t="n">
-        <v>5.601067734091104</v>
+        <v>5.515391704294848</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.83821969207458</v>
+        <v>-15.7520330624675</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-19.22307848839579</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.402292368836035</v>
+        <v>-9.447290613703048</v>
       </c>
       <c r="F3" t="n">
-        <v>5.497324326373267</v>
+        <v>5.414319126356723</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.36950215803794</v>
+        <v>-15.28513535852586</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-18.6510674630084</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.469167851751571</v>
+        <v>-9.513969712075959</v>
       </c>
       <c r="F4" t="n">
-        <v>5.650609008044196</v>
+        <v>5.571583868091537</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.61501892987495</v>
+        <v>-14.53763032777751</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-17.9043058557671</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.40886788821646</v>
+        <v>-10.45476950197955</v>
       </c>
       <c r="F5" t="n">
-        <v>5.72049572061333</v>
+        <v>5.633824675801103</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.69871483858823</v>
+        <v>-13.62740106500935</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.99238622275118</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.99508884025759</v>
+        <v>-11.04328160701798</v>
       </c>
       <c r="F6" t="n">
-        <v>5.943850407093176</v>
+        <v>5.849638195844115</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.92425275628876</v>
+        <v>-12.87471148233567</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-15.95909784162598</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.78755283896442</v>
+        <v>-11.8275498241459</v>
       </c>
       <c r="F7" t="n">
-        <v>6.253692846145465</v>
+        <v>6.157281128018995</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.65706185654094</v>
+        <v>-11.611395904229</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-14.81548814663111</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.58463842057439</v>
+        <v>-12.62366657534558</v>
       </c>
       <c r="F8" t="n">
-        <v>6.507840628909052</v>
+        <v>6.409857834441573</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.95721280813647</v>
+        <v>-10.91725509986352</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.59870731096347</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.28912214418483</v>
+        <v>-13.34286604735011</v>
       </c>
       <c r="F9" t="n">
-        <v>6.575292173149625</v>
+        <v>6.476235809849125</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.807616972513033</v>
+        <v>-9.784116288912134</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.3246455848739</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.31784983997345</v>
+        <v>-14.36579385297986</v>
       </c>
       <c r="F10" t="n">
-        <v>6.742061926747531</v>
+        <v>6.645754947043794</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.205305580279424</v>
+        <v>-9.180927712388131</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.01765005667074</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.23242574728507</v>
+        <v>-15.27167647120456</v>
       </c>
       <c r="F11" t="n">
-        <v>6.962798152659032</v>
+        <v>6.867538557182634</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.448347906879349</v>
+        <v>-8.43068639034586</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.709233465110126</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.44905417345815</v>
+        <v>-16.48378805289725</v>
       </c>
       <c r="F12" t="n">
-        <v>6.908962603373855</v>
+        <v>6.816400022282852</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.021774495690229</v>
+        <v>-8.010331823006561</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.412280883183634</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.37174730853163</v>
+        <v>-17.39744749900994</v>
       </c>
       <c r="F13" t="n">
-        <v>6.777018375334939</v>
+        <v>6.682387210394944</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.705844135816537</v>
+        <v>-7.702557967803265</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.171270971888055</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.70347016898633</v>
+        <v>-18.72752072930658</v>
       </c>
       <c r="F14" t="n">
-        <v>6.820851405249038</v>
+        <v>6.730043192738826</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.808026376142331</v>
+        <v>-6.810108052294165</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.994067749426091</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.76492862187927</v>
+        <v>-19.78862569002279</v>
       </c>
       <c r="F15" t="n">
-        <v>6.780972250793141</v>
+        <v>6.697338620240195</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.338902980717602</v>
+        <v>-6.334818182230984</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.903472226784633</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.72849592642462</v>
+        <v>-20.74098598333563</v>
       </c>
       <c r="F16" t="n">
-        <v>6.695112928757101</v>
+        <v>6.623864616692428</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.740990602238814</v>
+        <v>-5.743085370693491</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.900858164389554</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.76357338909149</v>
+        <v>-21.77485895414106</v>
       </c>
       <c r="F17" t="n">
-        <v>6.998828170079463</v>
+        <v>6.928313026973926</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.771587313979929</v>
+        <v>-5.768497530509281</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.980445991120687</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.60632492301339</v>
+        <v>-22.61852694926188</v>
       </c>
       <c r="F18" t="n">
-        <v>7.358080960056426</v>
+        <v>7.287199232471321</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.249531738166102</v>
+        <v>-5.24254044844862</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.143982911647363</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.22210829487114</v>
+        <v>-23.23760958143574</v>
       </c>
       <c r="F19" t="n">
-        <v>7.668604198856484</v>
+        <v>7.59332345751656</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.379391106699304</v>
+        <v>-4.385636135154807</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.372896083462162</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.11108875012718</v>
+        <v>-24.13402646470588</v>
       </c>
       <c r="F20" t="n">
-        <v>7.873551107540865</v>
+        <v>7.804345194719501</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.886976504519144</v>
+        <v>-3.885549443509396</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.6751181946932686</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.30295644827267</v>
+        <v>-24.32660114720483</v>
       </c>
       <c r="F21" t="n">
-        <v>7.740821341331446</v>
+        <v>7.666692722641593</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.823478835736773</v>
+        <v>-3.829344187409866</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.04046672320269384</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.98280045793499</v>
+        <v>-25.00939092500653</v>
       </c>
       <c r="F22" t="n">
-        <v>8.129400889673876</v>
+        <v>8.056974270353447</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.164611878580788</v>
+        <v>-4.162464740914745</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.5254372022344502</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.1504212112176</v>
+        <v>-25.17032151153703</v>
       </c>
       <c r="F23" t="n">
-        <v>7.797641935664537</v>
+        <v>7.734903620446985</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.039645847956512</v>
+        <v>-4.0406146783668</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.020412933944411</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.55372960025698</v>
+        <v>-25.57487366934636</v>
       </c>
       <c r="F24" t="n">
-        <v>7.765827639759142</v>
+        <v>7.711756429022814</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.888272642500475</v>
+        <v>-3.886478997011159</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.441788698789486</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.62980897207024</v>
+        <v>-25.66090319131935</v>
       </c>
       <c r="F25" t="n">
-        <v>7.876955106279714</v>
+        <v>7.832991153337197</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.785170757621882</v>
+        <v>-3.788404556423789</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.779043835735207</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.95961717295616</v>
+        <v>-25.98483294822933</v>
       </c>
       <c r="F26" t="n">
-        <v>7.781486033957847</v>
+        <v>7.739145526567705</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.591299937141603</v>
+        <v>-3.594402812915092</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.027882173431662</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.90084582549966</v>
+        <v>-25.92438578600908</v>
       </c>
       <c r="F27" t="n">
-        <v>7.725974669908928</v>
+        <v>7.681041886556125</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.687004670914621</v>
+        <v>-3.688680485678361</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.17652920203929</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.85974908687948</v>
+        <v>-25.87781646480106</v>
       </c>
       <c r="F28" t="n">
-        <v>7.579681277955482</v>
+        <v>7.53165871113203</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.901587514490511</v>
+        <v>-3.895028270766806</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.219683518884892</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.77958491657959</v>
+        <v>-25.79615977197722</v>
       </c>
       <c r="F29" t="n">
-        <v>7.532156218640016</v>
+        <v>7.479237130553759</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.686520255709477</v>
+        <v>-3.68866739337552</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.150986884565363</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.63687881560478</v>
+        <v>-25.65744682336913</v>
       </c>
       <c r="F30" t="n">
-        <v>7.634983165158932</v>
+        <v>7.576984263570086</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.851967686720369</v>
+        <v>-3.851810579086268</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.969069793776055</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.29753941825008</v>
+        <v>-25.32262427049483</v>
       </c>
       <c r="F31" t="n">
-        <v>7.464259536102825</v>
+        <v>7.416184600068006</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.225556548309022</v>
+        <v>-4.214925598401541</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.676279459181505</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.88060194195247</v>
+        <v>-24.90596173255689</v>
       </c>
       <c r="F32" t="n">
-        <v>7.582195000101093</v>
+        <v>7.53377966419239</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.154098759398882</v>
+        <v>-4.157882434920141</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.287235540348243</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.72418819990237</v>
+        <v>-24.74198063946427</v>
       </c>
       <c r="F33" t="n">
-        <v>7.579838385589582</v>
+        <v>7.528647481478433</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.295259968638372</v>
+        <v>-4.292929538732545</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8171768441506028</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.32004190348113</v>
+        <v>-24.33982437307498</v>
       </c>
       <c r="F34" t="n">
-        <v>7.691410990406772</v>
+        <v>7.640534301563824</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.332023155017938</v>
+        <v>-4.331761308961104</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.2886670558818363</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.18474604591473</v>
+        <v>-24.20286579304768</v>
       </c>
       <c r="F35" t="n">
-        <v>7.590312227862963</v>
+        <v>7.536188647915267</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.495113971517321</v>
+        <v>-4.498164478079443</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.2759083503428684</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.81975882729309</v>
+        <v>-23.84071960414269</v>
       </c>
       <c r="F36" t="n">
-        <v>7.730818821960367</v>
+        <v>7.671013182579363</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.449762234473582</v>
+        <v>-4.454331448165344</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.850508851996657</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.25936898875869</v>
+        <v>-23.27934784289516</v>
       </c>
       <c r="F37" t="n">
-        <v>7.700025725676627</v>
+        <v>7.640769963014975</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.566872883392821</v>
+        <v>-4.568771267304871</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.406365784018279</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.74451417950781</v>
+        <v>-22.76844690910249</v>
       </c>
       <c r="F38" t="n">
-        <v>7.656664018664831</v>
+        <v>7.592328442500588</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.508337197387464</v>
+        <v>-4.523131499598614</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.922103607328969</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.55522566502214</v>
+        <v>-22.57722073379623</v>
       </c>
       <c r="F39" t="n">
-        <v>7.830686908037054</v>
+        <v>7.764020901966984</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.710141953389829</v>
+        <v>-4.72493625560098</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.373059501121565</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.85316401743742</v>
+        <v>-21.88148266848407</v>
       </c>
       <c r="F40" t="n">
-        <v>8.088579089413374</v>
+        <v>8.022174929400139</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.683852609283643</v>
+        <v>-4.698895665248787</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.749711906554633</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.19314175427748</v>
+        <v>-21.22275654330547</v>
       </c>
       <c r="F41" t="n">
-        <v>8.081692538118626</v>
+        <v>8.016178654698628</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.706449923988463</v>
+        <v>-4.720812180205836</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.043566534609633</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.48082883356769</v>
+        <v>-20.51005085351042</v>
       </c>
       <c r="F42" t="n">
-        <v>8.103373391624524</v>
+        <v>8.038016615838627</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.050515642669024</v>
+        <v>-5.058423393585426</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.257894107144873</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.66604245851571</v>
+        <v>-19.69932309233938</v>
       </c>
       <c r="F43" t="n">
-        <v>8.210311321235743</v>
+        <v>8.140529347089343</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.205292846863909</v>
+        <v>-5.216486765793585</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.401563126024451</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.96657308689365</v>
+        <v>-19.01034065529354</v>
       </c>
       <c r="F44" t="n">
-        <v>8.010967918167621</v>
+        <v>7.939169729383596</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.01438088682586</v>
+        <v>-5.027525558878953</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.485011186972628</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.52294040510177</v>
+        <v>-18.55196604050187</v>
       </c>
       <c r="F45" t="n">
-        <v>8.044667505682224</v>
+        <v>7.966035134814818</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.232276083020706</v>
+        <v>-5.228636422830707</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.525537619912351</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.82248911076658</v>
+        <v>-17.85688259033179</v>
       </c>
       <c r="F46" t="n">
-        <v>8.154511926524306</v>
+        <v>8.072658849157834</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.373096892386312</v>
+        <v>-5.363879911185737</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.534496511807084</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.6620953086526</v>
+        <v>-17.70029864834475</v>
       </c>
       <c r="F47" t="n">
-        <v>8.012198594634743</v>
+        <v>7.941264497838272</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.663340154084538</v>
+        <v>-5.659124432569501</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.526475597317838</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.03418846436341</v>
+        <v>-17.06708942140467</v>
       </c>
       <c r="F48" t="n">
-        <v>7.972240886361796</v>
+        <v>7.898740698208345</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.75528739694198</v>
+        <v>-5.753572305269714</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.510409512331165</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.17746744330938</v>
+        <v>-16.21508162937366</v>
       </c>
       <c r="F49" t="n">
-        <v>7.912985123700143</v>
+        <v>7.848623362930218</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.00476122759107</v>
+        <v>-5.99542641566492</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.49213396307475</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.61879269644725</v>
+        <v>-15.65801723576106</v>
       </c>
       <c r="F50" t="n">
-        <v>7.659989463586629</v>
+        <v>7.592406996317639</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.226597206941276</v>
+        <v>-6.219828486372104</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.477734092765618</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.90049659333879</v>
+        <v>-14.93804531788886</v>
       </c>
       <c r="F51" t="n">
-        <v>7.507621243114621</v>
+        <v>7.443468959190163</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.179949331916206</v>
+        <v>-6.179530378225271</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.46853211614165</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.23212144096583</v>
+        <v>-14.28343017580256</v>
       </c>
       <c r="F52" t="n">
-        <v>7.388821687128798</v>
+        <v>7.326580879419233</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.385289009685838</v>
+        <v>-6.385865071010874</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.471342209301285</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.74330722206715</v>
+        <v>-13.78698314434715</v>
       </c>
       <c r="F53" t="n">
-        <v>7.426265673256135</v>
+        <v>7.359756774820167</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.417744828430477</v>
+        <v>-6.422667534298966</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.490975122463234</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.28192137762188</v>
+        <v>-13.33116152860961</v>
       </c>
       <c r="F54" t="n">
-        <v>7.206419723937871</v>
+        <v>7.137135257299457</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.636320824373094</v>
+        <v>-6.63743367011464</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.537480012963652</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.68373406078342</v>
+        <v>-12.73783145612543</v>
       </c>
       <c r="F55" t="n">
-        <v>7.189609207089095</v>
+        <v>7.123702554583846</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.952604676423512</v>
+        <v>-6.94963272367844</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.621477376530398</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.40924083940379</v>
+        <v>-12.46360008080263</v>
       </c>
       <c r="F56" t="n">
-        <v>7.217495812141971</v>
+        <v>7.154024327965283</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.921667564808513</v>
+        <v>-6.917386381779269</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.751055400297769</v>
       </c>
       <c r="E57" t="n">
-        <v>-11.95974280593881</v>
+        <v>-12.01266189402506</v>
       </c>
       <c r="F57" t="n">
-        <v>6.873691939518245</v>
+        <v>6.812210485373499</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.169085903911452</v>
+        <v>-7.15677913924023</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.938905019898393</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.53695307027095</v>
+        <v>-11.58403299128979</v>
       </c>
       <c r="F58" t="n">
-        <v>7.021765884658167</v>
+        <v>6.953397879218673</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.886570284243724</v>
+        <v>-7.872365135660452</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.188070733318251</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.48247599814652</v>
+        <v>-11.52366438288659</v>
       </c>
       <c r="F59" t="n">
-        <v>6.874346554660331</v>
+        <v>6.812158116162133</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.908342783869515</v>
+        <v>-7.902529801407788</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.507736586412391</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.23868422693074</v>
+        <v>-11.28576414794959</v>
       </c>
       <c r="F60" t="n">
-        <v>6.735489590720984</v>
+        <v>6.670211368752138</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.150563478744289</v>
+        <v>-8.13964449817429</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.895266621448384</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.29291254530117</v>
+        <v>-11.32983283931484</v>
       </c>
       <c r="F61" t="n">
-        <v>6.567044022359337</v>
+        <v>6.502839369223512</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.620053458648586</v>
+        <v>-8.60355715706801</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.3504583808359</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.34402489559527</v>
+        <v>-11.38336726563466</v>
       </c>
       <c r="F62" t="n">
-        <v>6.566467961034301</v>
+        <v>6.501294477488188</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.837202393581455</v>
+        <v>-8.819108831054189</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.866895173602633</v>
       </c>
       <c r="E63" t="n">
-        <v>-10.99366177924784</v>
+        <v>-11.02033080013643</v>
       </c>
       <c r="F63" t="n">
-        <v>6.87054978683623</v>
+        <v>6.800977289535298</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.871373303998359</v>
+        <v>-8.858660677939044</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.431102170412662</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.77249350734256</v>
+        <v>-10.79698920595943</v>
       </c>
       <c r="F64" t="n">
-        <v>6.716374828572064</v>
+        <v>6.653348482691995</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.091232345619465</v>
+        <v>-9.061264064414754</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.035252053304667</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.81531842993785</v>
+        <v>-10.84486775745162</v>
       </c>
       <c r="F65" t="n">
-        <v>6.687571762320267</v>
+        <v>6.624309754989047</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.161420181153959</v>
+        <v>-9.130221223482126</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.657023386450588</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.53399102647484</v>
+        <v>-10.56486267657563</v>
       </c>
       <c r="F66" t="n">
-        <v>6.529966620711568</v>
+        <v>6.464793137165456</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.532312028357216</v>
+        <v>-9.497931641094844</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.285485056896857</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.77449662967734</v>
+        <v>-10.80145368122846</v>
       </c>
       <c r="F67" t="n">
-        <v>6.281029574478989</v>
+        <v>6.219574304939927</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.583175624897322</v>
+        <v>-9.544186747034662</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.899248484345025</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.90433299695874</v>
+        <v>-10.92851448030741</v>
       </c>
       <c r="F68" t="n">
-        <v>6.252200323621508</v>
+        <v>6.186555517173094</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.408354105051753</v>
+        <v>-9.37350239488708</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.484177751171488</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.70100953382673</v>
+        <v>-10.72272966424116</v>
       </c>
       <c r="F69" t="n">
-        <v>6.267282656495177</v>
+        <v>6.197841082222662</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.435730110293804</v>
+        <v>-9.39421441798269</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.02680771003279</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.95048336447583</v>
+        <v>-10.96755572738144</v>
       </c>
       <c r="F70" t="n">
-        <v>6.039476587049143</v>
+        <v>5.979854239907922</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.522964124128224</v>
+        <v>-9.480950924309125</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.51087608094224</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.92081620623648</v>
+        <v>-10.9434789824555</v>
       </c>
       <c r="F71" t="n">
-        <v>5.744585557842106</v>
+        <v>5.682187642498439</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.498992117625024</v>
+        <v>-9.453732026701177</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.93249534448094</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.97508380151543</v>
+        <v>-10.99930456177262</v>
       </c>
       <c r="F72" t="n">
-        <v>5.951601050375478</v>
+        <v>5.883442521781452</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.756766468275767</v>
+        <v>-9.700220812302353</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-11.27900783740434</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.41226197800635</v>
+        <v>-11.43870842974663</v>
       </c>
       <c r="F73" t="n">
-        <v>6.05500405821943</v>
+        <v>5.988887928868714</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.520620601919555</v>
+        <v>-9.468133559827075</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-11.54977019767685</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.53415131746282</v>
+        <v>-11.56525862901476</v>
       </c>
       <c r="F74" t="n">
-        <v>6.041492801686769</v>
+        <v>5.97414599586893</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.580530979723294</v>
+        <v>-9.526171738324447</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-11.74132474887593</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.05535589359193</v>
+        <v>-12.08078114571056</v>
       </c>
       <c r="F75" t="n">
-        <v>5.987002637259505</v>
+        <v>5.923138383997565</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.724219003411237</v>
+        <v>-9.659451381253218</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-11.85138438502707</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.98850659528208</v>
+        <v>-12.01666813869463</v>
       </c>
       <c r="F76" t="n">
-        <v>5.877498616291308</v>
+        <v>5.816697961894333</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.754959730483611</v>
+        <v>-9.690676523530735</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-11.88339180134572</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.66082253081039</v>
+        <v>-12.68539678324431</v>
       </c>
       <c r="F77" t="n">
-        <v>5.856550931744547</v>
+        <v>5.796797661574908</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.522885570311173</v>
+        <v>-9.455839887458694</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-11.83486639285737</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.35701882672202</v>
+        <v>-13.38028384887177</v>
       </c>
       <c r="F78" t="n">
-        <v>5.924211952830587</v>
+        <v>5.860059668906129</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.931427697133357</v>
+        <v>-8.873101487973468</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.71058362911369</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.64610996577017</v>
+        <v>-13.67581640091805</v>
       </c>
       <c r="F79" t="n">
-        <v>6.117742373436982</v>
+        <v>6.042932954999359</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.115636398116443</v>
+        <v>-9.044911778165439</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.51264121178206</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.23611459333256</v>
+        <v>-14.26410593680817</v>
       </c>
       <c r="F80" t="n">
-        <v>6.132484306436766</v>
+        <v>6.054218520048927</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.548648038949812</v>
+        <v>-8.48037167963021</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.24238845101118</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.827768851053</v>
+        <v>-14.84705381313886</v>
       </c>
       <c r="F81" t="n">
-        <v>6.212321169165611</v>
+        <v>6.131279814575326</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.417855933560968</v>
+        <v>-8.345390037332015</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.90843326531319</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.67816628983448</v>
+        <v>-15.69979477412901</v>
       </c>
       <c r="F82" t="n">
-        <v>6.212399722982661</v>
+        <v>6.138532950349642</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.309870619722412</v>
+        <v>-8.232927155921587</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.50943460364958</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.71116207634951</v>
+        <v>-16.72630987073738</v>
       </c>
       <c r="F83" t="n">
-        <v>6.388203165541359</v>
+        <v>6.306611934231722</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.163498673951914</v>
+        <v>-8.085285256775443</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-10.05292580643411</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.6621607701668</v>
+        <v>-17.66820941407968</v>
       </c>
       <c r="F84" t="n">
-        <v>6.325464850323807</v>
+        <v>6.235285068349998</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.801876177160598</v>
+        <v>-7.7342282483774</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.541322760055039</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.51902580655209</v>
+        <v>-18.5403662601841</v>
       </c>
       <c r="F85" t="n">
-        <v>6.563770946648905</v>
+        <v>6.472910364927326</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.591810178065104</v>
+        <v>-7.528469616916833</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.979793248036113</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.79294614996056</v>
+        <v>-19.82067564737934</v>
       </c>
       <c r="F86" t="n">
-        <v>6.436461393815961</v>
+        <v>6.3420920749328</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.597492237498413</v>
+        <v>-7.530564385371509</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.381965242660749</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.84867017420883</v>
+        <v>-20.87349318039674</v>
       </c>
       <c r="F87" t="n">
-        <v>6.504986506889555</v>
+        <v>6.40922940390517</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.093320747366384</v>
+        <v>-7.032716477512034</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.753265317695851</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.23098169284395</v>
+        <v>-22.25517626849546</v>
       </c>
       <c r="F88" t="n">
-        <v>6.797416183162349</v>
+        <v>6.708781292923863</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.152039725611525</v>
+        <v>-7.094341946988038</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.115280183869578</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.84916413947561</v>
+        <v>-23.87079262377014</v>
       </c>
       <c r="F89" t="n">
-        <v>6.646121531523362</v>
+        <v>6.547327014279698</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.82356693961546</v>
+        <v>-6.772886635315138</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.477851864470471</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.14612693588552</v>
+        <v>-25.17762701652271</v>
       </c>
       <c r="F90" t="n">
-        <v>6.917106015741409</v>
+        <v>6.824307773199254</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.218967577738429</v>
+        <v>-7.161858952742819</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.859497302916057</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.88529535307757</v>
+        <v>-26.91679543371476</v>
       </c>
       <c r="F91" t="n">
-        <v>7.036272156206799</v>
+        <v>6.928470134608027</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.754308657582729</v>
+        <v>-6.714442595429673</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.273383342996926</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.87436964691248</v>
+        <v>-28.90220388275399</v>
       </c>
       <c r="F92" t="n">
-        <v>6.776363760192853</v>
+        <v>6.671887183515879</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.010433378075416</v>
+        <v>-6.966286132893115</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.723821842330262</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.73993115573856</v>
+        <v>-30.75854841037949</v>
       </c>
       <c r="F93" t="n">
-        <v>6.790163047388033</v>
+        <v>6.68076376484257</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.330510814596056</v>
+        <v>-6.302165978943719</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.220044703195728</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.7431975058539</v>
+        <v>-32.75783470043095</v>
       </c>
       <c r="F94" t="n">
-        <v>6.761150504290767</v>
+        <v>6.66096820294588</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.657189955102805</v>
+        <v>-6.631751610681332</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.752744305009536</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.05591352593629</v>
+        <v>-35.06630881439262</v>
       </c>
       <c r="F95" t="n">
-        <v>6.708781292923863</v>
+        <v>6.610327175554083</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.06946338823488</v>
+        <v>-6.062603021545816</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.320267396129278</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.47607807544072</v>
+        <v>-37.47978319714493</v>
       </c>
       <c r="F96" t="n">
-        <v>6.490558789157973</v>
+        <v>6.387993688695891</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.018324853335098</v>
+        <v>-6.013323593649559</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.9118272389242</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.47650339583941</v>
+        <v>-39.4814261017079</v>
       </c>
       <c r="F97" t="n">
-        <v>6.407448850718696</v>
+        <v>6.311848855368412</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.612109973064864</v>
+        <v>-5.614571325999107</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.515940558465716</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.89632754546996</v>
+        <v>-41.89981009802585</v>
       </c>
       <c r="F98" t="n">
-        <v>6.327900018652368</v>
+        <v>6.222245134719639</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.80103190307097</v>
+        <v>-5.798780026982193</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.132844768113413</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.21746191627957</v>
+        <v>-44.23373564871184</v>
       </c>
       <c r="F99" t="n">
-        <v>6.167047985938922</v>
+        <v>6.063592608883603</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.536331724216953</v>
+        <v>-5.541725752987744</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.743494903631145</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.34765814244545</v>
+        <v>-46.36774173500466</v>
       </c>
       <c r="F100" t="n">
-        <v>5.899807900333609</v>
+        <v>5.801877475077498</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.606794498111123</v>
+        <v>-5.606899236533856</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.367734502833424</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.79076040652859</v>
+        <v>-48.79642937365905</v>
       </c>
       <c r="F101" t="n">
-        <v>5.855791578179726</v>
+        <v>5.754692815635917</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.641620023670114</v>
+        <v>-5.64713188316648</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.9771166513493862</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.21995864499381</v>
+        <v>-51.22988261054784</v>
       </c>
       <c r="F102" t="n">
-        <v>5.177845952429467</v>
+        <v>5.087430509004507</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.323359233890595</v>
+        <v>-5.335849290801602</v>
       </c>
     </row>
   </sheetData>
